--- a/docentes/Domínguez Burgos Marioscar - Estadisticos 2020.xlsx
+++ b/docentes/Domínguez Burgos Marioscar - Estadisticos 2020.xlsx
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1118,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1141,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1164,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1187,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1210,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1233,7 +1233,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1279,7 +1279,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Domínguez Burgos Marioscar - Estadisticos 2020.xlsx
+++ b/docentes/Domínguez Burgos Marioscar - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>Mat</t>
   </si>
@@ -77,90 +77,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>CASIANO</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>MORAN</t>
-  </si>
-  <si>
-    <t>ESTRELLA</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
-    <t>RAMON</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>DIANA MIRELLY</t>
-  </si>
-  <si>
-    <t>YULENNY</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>URI YAEL</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>ARIDETH</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>NATHAEL</t>
-  </si>
-  <si>
-    <t>UZIEL ALEJANDRO</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +935,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1052,236 +968,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>17330051920160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920113</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920130</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920118</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920390</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920110</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920075</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Domínguez Burgos Marioscar - Estadisticos 2020.xlsx
+++ b/docentes/Domínguez Burgos Marioscar - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>Mat</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO</t>
   </si>
 </sst>
 </file>
@@ -480,19 +489,19 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>44.83</v>
+        <v>51.72</v>
       </c>
       <c r="H2">
-        <v>8.699999999999999</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -506,19 +515,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>38.1</v>
+        <v>47.62</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -532,19 +541,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>71.43000000000001</v>
+        <v>75</v>
       </c>
       <c r="H4">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -558,10 +567,10 @@
         <v>22</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>15</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -570,7 +579,7 @@
         <v>31.82</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -584,19 +593,19 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>27.27</v>
+        <v>31.82</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -652,16 +661,19 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>55.17</v>
+      </c>
+      <c r="H2">
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -675,16 +687,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.62</v>
+      </c>
+      <c r="H3">
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -698,16 +713,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>82.14</v>
+      </c>
+      <c r="H4">
+        <v>7.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -721,16 +739,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>36.36</v>
+      </c>
+      <c r="H5">
+        <v>5.7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -744,16 +765,19 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>31.82</v>
+      </c>
+      <c r="H6">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -809,19 +833,19 @@
         <v>29</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
       <c r="G2">
-        <v>44.83</v>
+        <v>55.17</v>
       </c>
       <c r="H2">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -835,19 +859,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>38.1</v>
+        <v>47.62</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -861,19 +885,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>71.43000000000001</v>
+        <v>82.14</v>
       </c>
       <c r="H4">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -887,19 +911,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>31.82</v>
+        <v>36.36</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -913,19 +937,19 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>27.27</v>
+        <v>31.82</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +959,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -968,6 +992,29 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920391</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Domínguez Burgos Marioscar - Estadisticos 2020.xlsx
+++ b/docentes/Domínguez Burgos Marioscar - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>Mat</t>
   </si>
@@ -79,13 +79,70 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CASIANO</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
     <t>ZACARIAS</t>
   </si>
   <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>RAMON</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>DIANA MIRELLY</t>
+  </si>
+  <si>
+    <t>YULENNY</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>URI YAEL</t>
+  </si>
+  <si>
     <t>LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>NATHAEL</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>UZIEL ALEJANDRO</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,25 +1051,209 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920391</v>
+        <v>18330051920113</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920391</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920064</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920064</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920075</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Domínguez Burgos Marioscar - Estadisticos 2020.xlsx
+++ b/docentes/Domínguez Burgos Marioscar - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
   <si>
     <t>Mat</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
     <t>CASIANO</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>RAMON</t>
   </si>
   <si>
+    <t>MAZA</t>
+  </si>
+  <si>
     <t>SARMIENTO</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
   </si>
   <si>
     <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ANGEL GABRIEL</t>
   </si>
   <si>
     <t>DIANA MIRELLY</t>
@@ -1016,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1051,22 +1060,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920113</v>
+        <v>18330051920026</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1074,16 +1083,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920128</v>
+        <v>18330051920113</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1097,16 +1106,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920130</v>
+        <v>18330051920128</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1120,16 +1129,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920135</v>
+        <v>18330051920130</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1143,22 +1152,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920391</v>
+        <v>18330051920135</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1166,16 +1175,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920110</v>
+        <v>18330051920391</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1189,22 +1198,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920064</v>
+        <v>18330051920110</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1215,16 +1224,16 @@
         <v>18330051920064</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1235,16 +1244,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920075</v>
+        <v>18330051920064</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1253,6 +1262,29 @@
         <v>13</v>
       </c>
       <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920075</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
